--- a/механика/1.04/1.04.xlsx
+++ b/механика/1.04/1.04.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://niuitmo-my.sharepoint.com/personal/pavetranquil_niuitmo_ru/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7146CF-B0EA-4913-9AC3-A2043AC31316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2233076-8808-4D58-AF7F-80E218EAE8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57DC3790-A028-438D-9339-D5144E565875}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,28 +35,44 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+  <si>
+    <t>буква</t>
+  </si>
+  <si>
+    <t>h₁</t>
+  </si>
+  <si>
+    <t>h₂</t>
+  </si>
   <si>
     <t>h</t>
   </si>
   <si>
-    <t>h₁</t>
-  </si>
-  <si>
-    <t>h₂</t>
-  </si>
-  <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>l₁</t>
-  </si>
-  <si>
-    <t>l₀</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
   <si>
     <r>
@@ -94,15 +110,52 @@
     <t>d</t>
   </si>
   <si>
-    <t>буква</t>
+    <t>l₀</t>
+  </si>
+  <si>
+    <t>l₁</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>формат</t>
   </si>
   <si>
     <t>зн-ие</t>
   </si>
   <si>
+    <r>
+      <t>к</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>г</t>
+    </r>
+  </si>
+  <si>
+    <t>0,0000</t>
+  </si>
+  <si>
     <t>±</t>
   </si>
   <si>
+    <t>Положение утяжелителей</t>
+  </si>
+  <si>
     <t>1 риска</t>
   </si>
   <si>
@@ -121,16 +174,10 @@
     <t>6 риска</t>
   </si>
   <si>
-    <t>Положение утяжелителей</t>
+    <t>delta_m</t>
   </si>
   <si>
     <t>ε, рад/c</t>
-  </si>
-  <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>g</t>
   </si>
   <si>
     <r>
@@ -149,40 +196,63 @@
     </r>
   </si>
   <si>
+    <t>погреха ебнутая =(</t>
+  </si>
+  <si>
     <t>I₀</t>
   </si>
   <si>
-    <t>формат</t>
-  </si>
-  <si>
-    <t>0,0000</t>
-  </si>
-  <si>
-    <r>
-      <t>к</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>г</t>
-    </r>
+    <t>§</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>чек</t>
+  </si>
+  <si>
+    <t>кс по альфа = 0.95 при n = 3</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>delta_t</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>delta_e</t>
+  </si>
+  <si>
+    <t>delta_M</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000000000000000000E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +291,27 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,8 +324,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -273,11 +374,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -287,25 +403,11 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,6 +418,32 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -333,10 +461,269 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293484</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>382680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3A98E7-620B-097C-D381-AF4AE96E4885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLineDrawing trans="0" pencilSize="34"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-13000" contrast="100000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5113134" y="1890434"/>
+          <a:ext cx="1975146" cy="2715858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:softEdge rad="127000"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B2D034-AF66-FED0-7D93-D894DC24C74E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DA3A98E7-620B-097C-D381-AF4AE96E4885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="7867650"/>
+          <a:ext cx="9658350" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F6F035-740F-17D3-D917-7AF8B87F25F6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{74B2D034-AF66-FED0-7D93-D894DC24C74E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="8696325"/>
+          <a:ext cx="10858500" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C1DB1BD-B77D-8EE9-2A38-20B9C1BF0ED5}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{09F6F035-740F-17D3-D917-7AF8B87F25F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="9620250"/>
+          <a:ext cx="11134725" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B1A0BD-71F0-A59A-7875-A27DC0D70AD6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0C1DB1BD-B77D-8EE9-2A38-20B9C1BF0ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="10572750"/>
+          <a:ext cx="10477500" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -374,7 +761,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -480,7 +867,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -630,25 +1017,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03F1F25-ED56-4CF6-8F71-280F367C8093}">
-  <dimension ref="A1:AD23"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" topLeftCell="J14" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="1" customWidth="1"/>
-    <col min="2" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="10.5546875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="21.21875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="21.28515625" style="1" customWidth="1"/>
+    <col min="13" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="1"/>
+    <col min="20" max="20" width="11.5703125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="16.149999999999999">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -657,42 +1049,42 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <f>700/1000</f>
@@ -734,18 +1126,18 @@
         <v>0.04</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1">
         <v>9.81</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O2" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <f>0.5/1000</f>
@@ -776,102 +1168,105 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="str">
+    <row r="5" spans="1:30">
+      <c r="A5" s="30" t="str">
         <f>_xlfn.CONCAT("Масса груза, ", M2)</f>
         <v>Масса груза, кг</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="L5" s="12" t="str">
+      <c r="B5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="L5" s="30" t="str">
         <f>A5</f>
         <v>Масса груза, кг</v>
       </c>
-      <c r="M5" s="10" t="str">
+      <c r="M5" s="29" t="str">
         <f>B6</f>
         <v>1 риска</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="10" t="str">
+      <c r="N5" s="29"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="29" t="str">
         <f>C6</f>
         <v>2 риска</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="10" t="str">
+      <c r="Q5" s="29"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="29" t="str">
         <f>D6</f>
         <v>3 риска</v>
       </c>
-      <c r="T5" s="10"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="10" t="str">
+      <c r="T5" s="29"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="29" t="str">
         <f>E6</f>
         <v>4 риска</v>
       </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="10" t="str">
+      <c r="W5" s="29"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="29" t="str">
         <f>F6</f>
         <v>5 риска</v>
       </c>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="10" t="str">
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="29" t="str">
         <f>G6</f>
         <v>6 риска</v>
       </c>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="30"/>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="30"/>
       <c r="M6" s="1" t="str">
         <f>_xlfn.CONCAT("a, ", M1, "/c²")</f>
         <v>a, м/c²</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O6" s="6" t="str">
         <f>_xlfn.CONCAT("M, H·", M1)</f>
         <v>M, H·м</v>
       </c>
       <c r="P6" s="1" t="str">
-        <f>M6</f>
+        <f t="shared" ref="P6:AD6" si="0">M6</f>
         <v>a, м/c²</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f>N6</f>
+        <f t="shared" si="0"/>
         <v>ε, рад/c</v>
       </c>
       <c r="R6" s="6" t="str">
-        <f t="shared" ref="R6:AD6" si="0">O6</f>
+        <f t="shared" si="0"/>
         <v>M, H·м</v>
       </c>
       <c r="S6" s="1" t="str">
@@ -923,8 +1318,8 @@
         <v>M, H·м</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="str">
+    <row r="7" spans="1:30">
+      <c r="A7" s="30" t="str">
         <f>_xlfn.CONCAT(TEXT(E2, $O$2), " ± ", TEXT(E3, $O$2))</f>
         <v>0,2200 ± 0,0005</v>
       </c>
@@ -947,85 +1342,91 @@
       <c r="G7" s="4">
         <v>10.4</v>
       </c>
+      <c r="J7" s="25">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.22</v>
+      </c>
       <c r="L7" s="2" t="str">
         <f>A7</f>
         <v>0,2200 ± 0,0005</v>
       </c>
-      <c r="M7" s="14">
-        <f>2*$D$2/B10</f>
-        <v>0.28532608695652173</v>
-      </c>
-      <c r="N7" s="14">
+      <c r="M7" s="9">
+        <f>2*$D$2/B10^2</f>
+        <v>5.8150697069943295E-2</v>
+      </c>
+      <c r="N7" s="9">
         <f>2*M7/$H$2</f>
-        <v>12.405482041587902</v>
-      </c>
-      <c r="O7" s="13">
+        <v>2.5282911769540566</v>
+      </c>
+      <c r="O7" s="8">
         <f>($F$2+$E$2)*$H$2*($N$2-M7)/2</f>
-        <v>5.849102250000001E-2</v>
-      </c>
-      <c r="P7" s="14">
-        <f>2*$D$2/C10</f>
-        <v>0.25179856115107913</v>
-      </c>
-      <c r="Q7" s="14">
+        <v>5.9886106569293489E-2</v>
+      </c>
+      <c r="P7" s="9">
+        <f>2*$D$2/C10^2</f>
+        <v>4.5287510998395529E-2</v>
+      </c>
+      <c r="Q7" s="9">
         <f>2*P7/$H$2</f>
-        <v>10.947763528307789</v>
-      </c>
-      <c r="R7" s="13">
+        <v>1.9690222173215448</v>
+      </c>
+      <c r="R7" s="8">
         <f>($F$2+$E$2)*$H$2*($N$2-P7)/2</f>
-        <v>5.8696915035971235E-2</v>
-      </c>
-      <c r="S7" s="14">
-        <f>2*$D$2/D10</f>
-        <v>0.21042084168336672</v>
-      </c>
-      <c r="T7" s="14">
+        <v>5.9965099394958858E-2</v>
+      </c>
+      <c r="S7" s="9">
+        <f>2*$D$2/D10^2</f>
+        <v>3.1626379010526062E-2</v>
+      </c>
+      <c r="T7" s="9">
         <f>2*S7/$H$2</f>
-        <v>9.1487322471029007</v>
-      </c>
-      <c r="U7" s="13">
+        <v>1.375059956979394</v>
+      </c>
+      <c r="U7" s="8">
         <f>($F$2+$E$2)*$H$2*($N$2-S7)/2</f>
-        <v>5.895101561122245E-2</v>
-      </c>
-      <c r="V7" s="14">
-        <f>2*$D$2/E10</f>
-        <v>0.18372703412073491</v>
-      </c>
-      <c r="W7" s="14">
+        <v>6.0048992406496374E-2</v>
+      </c>
+      <c r="V7" s="9">
+        <f>2*$D$2/E10^2</f>
+        <v>2.4111159333429777E-2</v>
+      </c>
+      <c r="W7" s="9">
         <f>2*V7/$H$2</f>
-        <v>7.9881319182928223</v>
-      </c>
-      <c r="X7" s="13">
+        <v>1.048311275366512</v>
+      </c>
+      <c r="X7" s="8">
         <f>($F$2+$E$2)*$H$2*($N$2-V7)/2</f>
-        <v>5.9114942283464568E-2</v>
-      </c>
-      <c r="Y7" s="14">
-        <f>2*$D$2/F10</f>
-        <v>0.16272762495156914</v>
-      </c>
-      <c r="Z7" s="14">
+        <v>6.009514337053342E-2</v>
+      </c>
+      <c r="Y7" s="9">
+        <f>2*$D$2/F10^2</f>
+        <v>1.8914485658841823E-2</v>
+      </c>
+      <c r="Z7" s="9">
         <f>2*Y7/$H$2</f>
-        <v>7.0751141283290933</v>
-      </c>
-      <c r="AA7" s="13">
+        <v>0.82236894168877495</v>
+      </c>
+      <c r="AA7" s="8">
         <f>($F$2+$E$2)*$H$2*($N$2-Y7)/2</f>
-        <v>5.9243899655172419E-2</v>
-      </c>
-      <c r="AB7" s="14">
-        <f>2*$D$2/G10</f>
-        <v>0.13329101872421453</v>
-      </c>
-      <c r="AC7" s="14">
+        <v>6.0127056143569065E-2</v>
+      </c>
+      <c r="AB7" s="9">
+        <f>2*$D$2/G10^2</f>
+        <v>1.2690354051813509E-2</v>
+      </c>
+      <c r="AC7" s="9">
         <f>2*AB7/$H$2</f>
-        <v>5.7952616836615016</v>
-      </c>
-      <c r="AD7" s="13">
+        <v>0.55175452399189173</v>
+      </c>
+      <c r="AD7" s="8">
         <f>($F$2+$E$2)*$H$2*($N$2-AB7)/2</f>
-        <v>5.9424669854014608E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+        <v>6.0165278535767829E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="30"/>
       <c r="B8" s="1">
         <v>4.92</v>
       </c>
@@ -1043,86 +1444,92 @@
       </c>
       <c r="G8" s="1">
         <v>10.54</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.44</v>
       </c>
       <c r="L8" s="2" t="str">
         <f>A11</f>
         <v>0,4400 ± 0,0010</v>
       </c>
-      <c r="M8" s="14">
-        <f>2*$D$2/B14</f>
-        <v>0.39961941008563268</v>
-      </c>
-      <c r="N8" s="14">
-        <f t="shared" ref="N8:N10" si="1">2*M8/$H$2</f>
-        <v>17.374756960244898</v>
-      </c>
-      <c r="O8" s="13">
+      <c r="M8" s="9">
+        <f>2*$D$2/B14^2</f>
+        <v>0.11406833779799221</v>
+      </c>
+      <c r="N8" s="9">
+        <f>2*M8/$H$2</f>
+        <v>4.9594929477387915</v>
+      </c>
+      <c r="O8" s="8">
         <f>($F$2+2*$E$2)*$H$2*($N$2-M8)/2</f>
-        <v>0.10540567298763083</v>
-      </c>
-      <c r="P8" s="14">
-        <f>2*$D$2/C14</f>
-        <v>0.34063260340632606</v>
-      </c>
-      <c r="Q8" s="14">
+        <v>0.10860413054832468</v>
+      </c>
+      <c r="P8" s="9">
+        <f>2*$D$2/C14^2</f>
+        <v>8.2878978930979591E-2</v>
+      </c>
+      <c r="Q8" s="9">
         <f>2*P8/$H$2</f>
-        <v>14.810113191579394</v>
-      </c>
-      <c r="R8" s="13">
+        <v>3.60343386656433</v>
+      </c>
+      <c r="R8" s="8">
         <f>($F$2+2*$E$2)*$H$2*($N$2-P8)/2</f>
-        <v>0.10606638420924575</v>
-      </c>
-      <c r="S8" s="14">
-        <f>2*$D$2/D14</f>
-        <v>0.29453015427769985</v>
-      </c>
-      <c r="T8" s="14">
+        <v>0.10895348255699409</v>
+      </c>
+      <c r="S8" s="9">
+        <f>2*$D$2/D14^2</f>
+        <v>6.1962865556318351E-2</v>
+      </c>
+      <c r="T8" s="9">
         <f>2*S8/$H$2</f>
-        <v>12.805658881639124</v>
-      </c>
-      <c r="U8" s="13">
+        <v>2.6940376328834068</v>
+      </c>
+      <c r="U8" s="8">
         <f>($F$2+2*$E$2)*$H$2*($N$2-S8)/2</f>
-        <v>0.10658277774193547</v>
-      </c>
-      <c r="V8" s="14">
-        <f>2*$D$2/E14</f>
-        <v>0.25846153846153841</v>
-      </c>
-      <c r="W8" s="14">
+        <v>0.10918776394290368</v>
+      </c>
+      <c r="V8" s="9">
+        <f>2*$D$2/E14^2</f>
+        <v>4.7715976331360939E-2</v>
+      </c>
+      <c r="W8" s="9">
         <f>2*V8/$H$2</f>
-        <v>11.237458193979931</v>
-      </c>
-      <c r="X8" s="13">
+        <v>2.0746076665809103</v>
+      </c>
+      <c r="X8" s="8">
         <f>($F$2+2*$E$2)*$H$2*($N$2-V8)/2</f>
-        <v>0.1069867823076923</v>
-      </c>
-      <c r="Y8" s="14">
-        <f>2*$D$2/F14</f>
-        <v>0.22047244094488186</v>
-      </c>
-      <c r="Z8" s="14">
+        <v>0.10934734334911242</v>
+      </c>
+      <c r="Y8" s="9">
+        <f>2*$D$2/F14^2</f>
+        <v>3.4720069440138876E-2</v>
+      </c>
+      <c r="Z8" s="9">
         <f>2*Y8/$H$2</f>
-        <v>9.585758301951385</v>
-      </c>
-      <c r="AA8" s="13">
+        <v>1.5095682365277772</v>
+      </c>
+      <c r="AA8" s="8">
         <f>($F$2+2*$E$2)*$H$2*($N$2-Y8)/2</f>
-        <v>0.10741229818897638</v>
-      </c>
-      <c r="AB8" s="14">
-        <f>2*$D$2/G14</f>
-        <v>0.19571295433364397</v>
-      </c>
-      <c r="AC8" s="14">
+        <v>0.109492910502201</v>
+      </c>
+      <c r="AB8" s="9">
+        <f>2*$D$2/G14^2</f>
+        <v>2.7359686067145009E-2</v>
+      </c>
+      <c r="AC8" s="9">
         <f>2*AB8/$H$2</f>
-        <v>8.5092588840714765</v>
-      </c>
-      <c r="AD8" s="13">
+        <v>1.1895515681367395</v>
+      </c>
+      <c r="AD8" s="8">
         <f>($F$2+2*$E$2)*$H$2*($N$2-AB8)/2</f>
-        <v>0.10768962919850886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+        <v>0.10957535415636191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="30"/>
       <c r="B9" s="1">
         <v>4.8899999999999997</v>
       </c>
@@ -1140,200 +1547,208 @@
       </c>
       <c r="G9" s="1">
         <v>10.57</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.66</v>
       </c>
       <c r="L9" s="2" t="str">
         <f>A15</f>
         <v>0,6600 ± 0,0015</v>
       </c>
-      <c r="M9" s="14">
-        <f>2*$D$2/B18</f>
-        <v>0.48667439165701037</v>
-      </c>
-      <c r="N9" s="14">
+      <c r="M9" s="9">
+        <f>2*$D$2/B18^2</f>
+        <v>0.1691799739248008</v>
+      </c>
+      <c r="N9" s="9">
+        <f>2*M9/$H$2</f>
+        <v>7.3556510402087305</v>
+      </c>
+      <c r="O9" s="8">
+        <f>($F$2+3*$E$2)*$H$2*($N$2-M9)/2</f>
+        <v>0.15676937444400885</v>
+      </c>
+      <c r="P9" s="9">
+        <f>2*$D$2/C18^2</f>
+        <v>0.11739538766565794</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>2*P9/$H$2</f>
+        <v>5.1041472898112143</v>
+      </c>
+      <c r="R9" s="8">
+        <f>($F$2+3*$E$2)*$H$2*($N$2-P9)/2</f>
+        <v>0.15761144360116874</v>
+      </c>
+      <c r="S9" s="9">
+        <f>2*$D$2/D18^2</f>
+        <v>8.808626301719219E-2</v>
+      </c>
+      <c r="T9" s="9">
+        <f>2*S9/$H$2</f>
+        <v>3.829837522486617</v>
+      </c>
+      <c r="U9" s="8">
+        <f>($F$2+3*$E$2)*$H$2*($N$2-S9)/2</f>
+        <v>0.15808803927707746</v>
+      </c>
+      <c r="V9" s="9">
+        <f>2*$D$2/E18^2</f>
+        <v>6.3287292665053008E-2</v>
+      </c>
+      <c r="W9" s="9">
+        <f>2*V9/$H$2</f>
+        <v>2.751621420219696</v>
+      </c>
+      <c r="X9" s="8">
+        <f>($F$2+3*$E$2)*$H$2*($N$2-V9)/2</f>
+        <v>0.15849129533397358</v>
+      </c>
+      <c r="Y9" s="9">
+        <f>2*$D$2/F18^2</f>
+        <v>5.0408851794375084E-2</v>
+      </c>
+      <c r="Z9" s="9">
+        <f>2*Y9/$H$2</f>
+        <v>2.1916892084510908</v>
+      </c>
+      <c r="AA9" s="8">
+        <f>($F$2+3*$E$2)*$H$2*($N$2-Y9)/2</f>
+        <v>0.15870071166097169</v>
+      </c>
+      <c r="AB9" s="9">
+        <f>2*$D$2/G18^2</f>
+        <v>4.1664999515561713E-2</v>
+      </c>
+      <c r="AC9" s="9">
+        <f>2*AB9/$H$2</f>
+        <v>1.8115217180679006</v>
+      </c>
+      <c r="AD9" s="8">
+        <f>($F$2+3*$E$2)*$H$2*($N$2-AB9)/2</f>
+        <v>0.1588428954428775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="13.9" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="5">
+        <f t="shared" ref="B10:G10" si="1">AVERAGE(B7:B9)</f>
+        <v>4.9066666666666663</v>
+      </c>
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
-        <v>21.159756159000452</v>
-      </c>
-      <c r="O9" s="13">
-        <f>($F$2+3*$E$2)*$H$2*($N$2-M9)/2</f>
-        <v>0.1516065977172654</v>
-      </c>
-      <c r="P9" s="14">
-        <f>2*$D$2/C18</f>
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="Q9" s="14">
-        <f>2*P9/$H$2</f>
-        <v>17.626321974148063</v>
-      </c>
-      <c r="R9" s="13">
-        <f>($F$2+3*$E$2)*$H$2*($N$2-P9)/2</f>
-        <v>0.15292811270270273</v>
-      </c>
-      <c r="S9" s="14">
-        <f>2*$D$2/D18</f>
-        <v>0.3511705685618729</v>
-      </c>
-      <c r="T9" s="14">
-        <f>2*S9/$H$2</f>
-        <v>15.268285589646649</v>
-      </c>
-      <c r="U9" s="13">
-        <f>($F$2+3*$E$2)*$H$2*($N$2-S9)/2</f>
-        <v>0.15381002538461541</v>
-      </c>
-      <c r="V9" s="14">
-        <f>2*$D$2/E18</f>
-        <v>0.297661233167966</v>
-      </c>
-      <c r="W9" s="14">
-        <f>2*V9/$H$2</f>
-        <v>12.941792746433304</v>
-      </c>
-      <c r="X9" s="13">
-        <f>($F$2+3*$E$2)*$H$2*($N$2-V9)/2</f>
-        <v>0.15468014068745572</v>
-      </c>
-      <c r="Y9" s="14">
-        <f>2*$D$2/F18</f>
-        <v>0.26565464895635671</v>
-      </c>
-      <c r="Z9" s="14">
-        <f>2*Y9/$H$2</f>
-        <v>11.550202128537249</v>
-      </c>
-      <c r="AA9" s="13">
-        <f>($F$2+3*$E$2)*$H$2*($N$2-Y9)/2</f>
-        <v>0.15520059975332071</v>
-      </c>
-      <c r="AB9" s="14">
-        <f>2*$D$2/G18</f>
-        <v>0.24151811385853936</v>
-      </c>
-      <c r="AC9" s="14">
-        <f>2*AB9/$H$2</f>
-        <v>10.500787559066929</v>
-      </c>
-      <c r="AD9" s="13">
-        <f>($F$2+3*$E$2)*$H$2*($N$2-AB9)/2</f>
-        <v>0.1555930839505463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="5">
-        <f>AVERAGE(B7:B9)</f>
-        <v>4.9066666666666663</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" ref="C10:G10" si="2">AVERAGE(C7:C9)</f>
         <v>5.56</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.6533333333333333</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.62</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.6033333333333335</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.503333333333332</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="9" t="str">
-        <f>_xlfn.CONCAT("±", TEXT(J10, $O$2))</f>
-        <v>±0,0005</v>
-      </c>
-      <c r="J10" s="1">
-        <f>_xlfn.CONFIDENCE.T(0.95, _xlfn.STDEV.P(B7:B9), 3)</f>
-        <v>5.0981274193458756E-4</v>
-      </c>
-      <c r="L10" s="16" t="str">
+        <v>27</v>
+      </c>
+      <c r="I10" s="20" t="str">
+        <f>_xlfn.CONCAT("±", TEXT(I11, $O$2))</f>
+        <v>±0,0310</v>
+      </c>
+      <c r="J10" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="L10" s="10" t="str">
         <f>A19</f>
         <v>0,8800 ± 0,0020</v>
       </c>
-      <c r="M10" s="17">
-        <f>2*$D$2/B22</f>
-        <v>0.53777208706786161</v>
-      </c>
-      <c r="N10" s="17">
-        <f t="shared" si="1"/>
-        <v>23.381395089907027</v>
-      </c>
-      <c r="O10" s="18">
+      <c r="M10" s="11">
+        <f>2*$D$2/B22^2</f>
+        <v>0.20657058402094558</v>
+      </c>
+      <c r="N10" s="11">
+        <f>2*M10/$H$2</f>
+        <v>8.9813297400411116</v>
+      </c>
+      <c r="O10" s="12">
         <f>($F$2+4*$E$2)*$H$2*($N$2-M10)/2</f>
-        <v>0.19769317133162614</v>
-      </c>
-      <c r="P10" s="17">
-        <f>2*$D$2/C22</f>
-        <v>0.46770601336302886</v>
-      </c>
-      <c r="Q10" s="17">
+        <v>0.20475471857808941</v>
+      </c>
+      <c r="P10" s="11">
+        <f>2*$D$2/C22^2</f>
+        <v>0.15624922495424126</v>
+      </c>
+      <c r="Q10" s="11">
         <f>2*P10/$H$2</f>
-        <v>20.335044059262124</v>
-      </c>
-      <c r="R10" s="18">
+        <v>6.7934445632278813</v>
+      </c>
+      <c r="R10" s="12">
         <f>($F$2+4*$E$2)*$H$2*($N$2-P10)/2</f>
-        <v>0.19918705008908685</v>
-      </c>
-      <c r="S10" s="17">
-        <f>2*$D$2/D22</f>
-        <v>0.40501446480231429</v>
-      </c>
-      <c r="T10" s="17">
+        <v>0.20582762027475063</v>
+      </c>
+      <c r="S10" s="11">
+        <f>2*$D$2/D22^2</f>
+        <v>0.11716908335650364</v>
+      </c>
+      <c r="T10" s="11">
         <f>2*S10/$H$2</f>
-        <v>17.609324556622362</v>
-      </c>
-      <c r="U10" s="18">
+        <v>5.0943079720218973</v>
+      </c>
+      <c r="U10" s="12">
         <f>($F$2+4*$E$2)*$H$2*($N$2-S10)/2</f>
-        <v>0.20052369659594987</v>
-      </c>
-      <c r="V10" s="17">
-        <f>2*$D$2/E22</f>
-        <v>0.34797017398508695</v>
-      </c>
-      <c r="W10" s="17">
+        <v>0.20666084797375597</v>
+      </c>
+      <c r="V10" s="11">
+        <f>2*$D$2/E22^2</f>
+        <v>8.6488029988008364E-2</v>
+      </c>
+      <c r="W10" s="11">
         <f>2*V10/$H$2</f>
-        <v>15.129137999351606</v>
-      </c>
-      <c r="X10" s="18">
+        <v>3.7603491299134073</v>
+      </c>
+      <c r="X10" s="12">
         <f>($F$2+4*$E$2)*$H$2*($N$2-V10)/2</f>
-        <v>0.20173993792046396</v>
-      </c>
-      <c r="Y10" s="17">
-        <f>2*$D$2/F22</f>
-        <v>0.31088082901554404</v>
-      </c>
-      <c r="Z10" s="17">
+        <v>0.20731499871262568</v>
+      </c>
+      <c r="Y10" s="11">
+        <f>2*$D$2/F22^2</f>
+        <v>6.9033492749565675E-2</v>
+      </c>
+      <c r="Z10" s="11">
         <f>2*Y10/$H$2</f>
-        <v>13.516557783284524</v>
-      </c>
-      <c r="AA10" s="18">
+        <v>3.0014562065028554</v>
+      </c>
+      <c r="AA10" s="12">
         <f>($F$2+4*$E$2)*$H$2*($N$2-Y10)/2</f>
-        <v>0.20253071984455961</v>
-      </c>
-      <c r="AB10" s="17">
-        <f>2*$D$2/G22</f>
-        <v>0.27686222808174027</v>
-      </c>
-      <c r="AC10" s="17">
+        <v>0.20768714690108653</v>
+      </c>
+      <c r="AB10" s="11">
+        <f>2*$D$2/G22^2</f>
+        <v>5.4751923813132555E-2</v>
+      </c>
+      <c r="AC10" s="11">
         <f>2*AB10/$H$2</f>
-        <v>12.037488177466969</v>
-      </c>
-      <c r="AD10" s="18">
+        <v>2.3805184266579373</v>
+      </c>
+      <c r="AD10" s="12">
         <f>($F$2+4*$E$2)*$H$2*($N$2-AB10)/2</f>
-        <v>0.20325603043506923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="str">
+        <v>0.20799164423238023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="13.9" customHeight="1">
+      <c r="A11" s="30" t="str">
         <f>_xlfn.CONCAT(TEXT(2*E2, $O$2), " ± ", TEXT(2*E3, $O$2))</f>
         <v>0,4400 ± 0,0010</v>
       </c>
@@ -1355,44 +1770,50 @@
       <c r="G11" s="1">
         <v>7.1</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="L11" s="8" t="str">
+      <c r="I11" s="1">
+        <f>_xlfn.CONFIDENCE.T(0.05, _xlfn.STDEV.P(B7:B9), 3)</f>
+        <v>3.0982640729781467E-2</v>
+      </c>
+      <c r="L11" s="7" t="str">
         <f>_xlfn.CONCAT("I, ", M2, "·", M1, "²")</f>
         <v>I, кг·м²</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14">
-        <v>1.2296E-2</v>
-      </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14">
-        <v>1.5007E-2</v>
-      </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14">
-        <v>1.6744999999999999E-2</v>
-      </c>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14">
-        <v>2.0201E-2</v>
-      </c>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14">
-        <v>2.2353999999999999E-2</v>
-      </c>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14">
-        <v>2.2775E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9">
+        <f>AVERAGE(N7:N10)</f>
+        <v>5.9561912262356724</v>
+      </c>
+      <c r="O11" s="9">
+        <v>2.2026E-2</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9">
+        <v>3.041E-2</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9">
+        <v>3.9749E-2</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9">
+        <v>5.5356000000000002E-2</v>
+      </c>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9">
+        <v>6.8024000000000001E-2</v>
+      </c>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9">
+        <v>8.0596000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="13.9" customHeight="1">
+      <c r="A12" s="30"/>
       <c r="B12" s="1">
         <v>3.52</v>
       </c>
@@ -1411,43 +1832,43 @@
       <c r="G12" s="1">
         <v>7.21</v>
       </c>
-      <c r="L12" s="8" t="str">
+      <c r="L12" s="7" t="str">
         <f>_xlfn.CONCAT("Mтр, H·", M1)</f>
         <v>Mтр, H·м</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14">
-        <v>-0.100163</v>
-      </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14">
-        <v>-0.10983900000000001</v>
-      </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14">
-        <v>-9.9578E-2</v>
-      </c>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14">
-        <v>-0.10822900000000001</v>
-      </c>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14">
-        <v>-0.10209600000000001</v>
-      </c>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14">
-        <v>-7.8287999999999996E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9">
+        <v>1.3320000000000001E-3</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9">
+        <v>2.8699999999999998E-4</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9">
+        <v>4.3829999999999997E-3</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9">
+        <v>4.6500000000000003E-4</v>
+      </c>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9">
+        <v>6.0270000000000002E-3</v>
+      </c>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9">
+        <v>1.4598E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="13.9" customHeight="1">
+      <c r="A13" s="30"/>
       <c r="B13" s="1">
         <v>3.5</v>
       </c>
@@ -1466,92 +1887,92 @@
       <c r="G13" s="1">
         <v>7.15</v>
       </c>
-      <c r="L13" s="19" t="str">
+      <c r="L13" s="13" t="str">
         <f>_xlfn.CONCAT("R, ", M1)</f>
         <v>R, м</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="17">
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="11">
         <f>$J$2+(VALUE(MID(M5,1,1))-1)*$I$2+$K$2/2</f>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14">
-        <f t="shared" ref="P13:AD13" si="3">$J$2+(VALUE(MID(P5,1,1))-1)*$I$2+$K$2/2</f>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9">
+        <f>$J$2+(VALUE(MID(P5,1,1))-1)*$I$2+$K$2/2</f>
         <v>0.10200000000000001</v>
       </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14">
-        <f t="shared" si="3"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9">
+        <f>$J$2+(VALUE(MID(S5,1,1))-1)*$I$2+$K$2/2</f>
         <v>0.127</v>
       </c>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14">
-        <f t="shared" si="3"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9">
+        <f>$J$2+(VALUE(MID(V5,1,1))-1)*$I$2+$K$2/2</f>
         <v>0.152</v>
       </c>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14">
-        <f t="shared" si="3"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9">
+        <f>$J$2+(VALUE(MID(Y5,1,1))-1)*$I$2+$K$2/2</f>
         <v>0.17699999999999999</v>
       </c>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14">
-        <f t="shared" si="3"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9">
+        <f>$J$2+(VALUE(MID(AB5,1,1))-1)*$I$2+$K$2/2</f>
         <v>0.20199999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:30" ht="13.9" customHeight="1">
+      <c r="A14" s="30"/>
       <c r="B14" s="5">
-        <f>AVERAGE(B11:B13)</f>
+        <f t="shared" ref="B14:G14" si="2">AVERAGE(B11:B13)</f>
         <v>3.5033333333333334</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:G14" si="4">AVERAGE(C11:C13)</f>
+        <f t="shared" si="2"/>
         <v>4.1099999999999994</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.753333333333333</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5.416666666666667</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6.3500000000000005</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.1533333333333333</v>
       </c>
-      <c r="L14" s="8" t="str">
+      <c r="L14" s="7" t="str">
         <f>_xlfn.CONCAT("Δ", MID(M6,1,1), ", Δ", MID(N6,1,1), ", Δ", MID(O6,1,1))</f>
         <v>Δa, Δε, ΔM</v>
       </c>
-      <c r="M14" s="8" t="str">
+      <c r="M14" s="7" t="str">
         <f>_xlfn.CONCAT("±", TEXT(M15, $O$2))</f>
-        <v>±0,0033</v>
-      </c>
-      <c r="N14" s="8" t="str">
+        <v>±0,0894</v>
+      </c>
+      <c r="N14" s="7" t="str">
         <f>_xlfn.CONCAT("±", TEXT(N15, $O$2))</f>
-        <v>±0,1417</v>
-      </c>
-      <c r="O14" s="8" t="str">
+        <v>±3,8858</v>
+      </c>
+      <c r="O14" s="7" t="str">
         <f>_xlfn.CONCAT("±", TEXT(O15, $O$2))</f>
-        <v>±0,0018</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="str">
+        <v>±0,0859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="30" t="str">
         <f>_xlfn.CONCAT(TEXT(3*E2, $O$2), " ± ", TEXT(3*E3, $O$2))</f>
         <v>0,6600 ± 0,0015</v>
       </c>
@@ -1574,20 +1995,20 @@
         <v>5.78</v>
       </c>
       <c r="M15" s="1">
-        <f>_xlfn.CONFIDENCE.T(0.95, _xlfn.STDEV.P(M7:M10), 4)</f>
-        <v>3.2587988545990884E-3</v>
+        <f>_xlfn.CONFIDENCE.T(0.05, _xlfn.STDEV.P(M7:M10), 4)</f>
+        <v>8.9373390818107371E-2</v>
       </c>
       <c r="N15" s="1">
-        <f>_xlfn.CONFIDENCE.T(0.95, _xlfn.STDEV.P(N7:N10), 4)</f>
-        <v>0.14168690672169931</v>
+        <f>_xlfn.CONFIDENCE.T(0.05, _xlfn.STDEV.P(N7:N10), 4)</f>
+        <v>3.8857996007872764</v>
       </c>
       <c r="O15" s="1">
-        <f>_xlfn.CONFIDENCE.T(0.95, _xlfn.STDEV.P(O7:O10), 4)</f>
-        <v>1.7653629747431728E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+        <f>_xlfn.CONFIDENCE.T(0.05, _xlfn.STDEV.P(O7:O10), 4)</f>
+        <v>8.5887502087852299E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="30"/>
       <c r="B16" s="1">
         <v>2.87</v>
       </c>
@@ -1606,9 +2027,12 @@
       <c r="G16" s="1">
         <v>5.79</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="N16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="30"/>
       <c r="B17" s="1">
         <v>2.85</v>
       </c>
@@ -1628,62 +2052,59 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:18">
+      <c r="A18" s="30"/>
       <c r="B18" s="5">
-        <f>AVERAGE(B15:B17)</f>
+        <f t="shared" ref="B18:G18" si="3">AVERAGE(B15:B17)</f>
         <v>2.8766666666666669</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:G18" si="5">AVERAGE(C15:C17)</f>
+        <f t="shared" si="3"/>
         <v>3.4533333333333331</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.9866666666666668</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4.7033333333333331</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.2700000000000005</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.7966666666666669</v>
       </c>
-      <c r="M18" s="15" t="str">
+      <c r="M18" s="1" t="str">
         <f>M5</f>
         <v>1 риска</v>
       </c>
-      <c r="N18" s="15" t="str">
+      <c r="N18" s="1" t="str">
         <f>P5</f>
         <v>2 риска</v>
       </c>
-      <c r="O18" s="15" t="str">
+      <c r="O18" s="1" t="str">
         <f>S5</f>
         <v>3 риска</v>
       </c>
-      <c r="P18" s="15" t="str">
+      <c r="P18" s="1" t="str">
         <f>V5</f>
         <v>4 риска</v>
       </c>
-      <c r="Q18" s="15" t="str">
+      <c r="Q18" s="1" t="str">
         <f>Y5</f>
         <v>5 риска</v>
       </c>
-      <c r="R18" s="15" t="str">
+      <c r="R18" s="1" t="str">
         <f>AB5</f>
         <v>6 риска</v>
       </c>
-      <c r="S18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="str">
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="29" t="str">
         <f>_xlfn.CONCAT(TEXT(4*E2, $O$2), " ± ", TEXT(4*E3, $O$2))</f>
         <v>0,8800 ± 0,0020</v>
       </c>
@@ -1705,37 +2126,37 @@
       <c r="G19" s="1">
         <v>5.05</v>
       </c>
-      <c r="L19" s="8" t="str">
+      <c r="L19" s="7" t="str">
         <f>L11</f>
         <v>I, кг·м²</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="9">
         <f>O11</f>
-        <v>1.2296E-2</v>
-      </c>
-      <c r="N19" s="14">
+        <v>2.2026E-2</v>
+      </c>
+      <c r="N19" s="9">
         <f>R11</f>
-        <v>1.5007E-2</v>
-      </c>
-      <c r="O19" s="14">
+        <v>3.041E-2</v>
+      </c>
+      <c r="O19" s="9">
         <f>U11</f>
-        <v>1.6744999999999999E-2</v>
-      </c>
-      <c r="P19" s="14">
+        <v>3.9749E-2</v>
+      </c>
+      <c r="P19" s="9">
         <f>X11</f>
-        <v>2.0201E-2</v>
-      </c>
-      <c r="Q19" s="14">
+        <v>5.5356000000000002E-2</v>
+      </c>
+      <c r="Q19" s="9">
         <f>AA11</f>
-        <v>2.2353999999999999E-2</v>
-      </c>
-      <c r="R19" s="14">
+        <v>6.8024000000000001E-2</v>
+      </c>
+      <c r="R19" s="9">
         <f>AD11</f>
-        <v>2.2775E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+        <v>8.0596000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="29"/>
       <c r="B20" s="1">
         <v>2.64</v>
       </c>
@@ -1754,37 +2175,37 @@
       <c r="G20" s="1">
         <v>5.03</v>
       </c>
-      <c r="L20" s="8" t="str">
+      <c r="L20" s="7" t="str">
         <f>L13</f>
         <v>R, м</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="9">
         <f>O13</f>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="9">
         <f>R13</f>
         <v>0.10200000000000001</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="9">
         <f>U13</f>
         <v>0.127</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="9">
         <f>X13</f>
         <v>0.152</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="9">
         <f>AA13</f>
         <v>0.17699999999999999</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="9">
         <f>AD13</f>
         <v>0.20199999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+    <row r="21" spans="1:18">
+      <c r="A21" s="29"/>
       <c r="B21" s="1">
         <v>2.61</v>
       </c>
@@ -1803,101 +2224,434 @@
       <c r="G21" s="1">
         <v>5.09</v>
       </c>
-      <c r="L21" s="19" t="str">
+      <c r="L21" s="13" t="str">
         <f>REPLACE(_xlfn.CONCAT(L13, "²"),1,1,"R²")</f>
         <v>R², м²</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="11">
         <f>M20^2</f>
         <v>5.9290000000000002E-3</v>
       </c>
-      <c r="N21" s="17">
-        <f t="shared" ref="N21:R21" si="6">N20^2</f>
+      <c r="N21" s="11">
+        <f t="shared" ref="N21:R21" si="4">N20^2</f>
         <v>1.0404000000000002E-2</v>
       </c>
-      <c r="O21" s="17">
-        <f t="shared" si="6"/>
+      <c r="O21" s="11">
+        <f t="shared" si="4"/>
         <v>1.6129000000000001E-2</v>
       </c>
-      <c r="P21" s="17">
-        <f>P20^2</f>
+      <c r="P21" s="11">
+        <f t="shared" si="4"/>
         <v>2.3104E-2</v>
       </c>
-      <c r="Q21" s="17">
-        <f t="shared" si="6"/>
+      <c r="Q21" s="11">
+        <f t="shared" si="4"/>
         <v>3.1328999999999996E-2</v>
       </c>
-      <c r="R21" s="17">
-        <f t="shared" si="6"/>
+      <c r="R21" s="11">
+        <f t="shared" si="4"/>
         <v>4.0803999999999993E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:18">
+      <c r="A22" s="29"/>
       <c r="B22" s="5">
-        <f>AVERAGE(B19:B21)</f>
+        <f t="shared" ref="B22:G22" si="5">AVERAGE(B19:B21)</f>
         <v>2.6033333333333335</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ref="C22:G22" si="7">AVERAGE(C19:C21)</f>
+        <f t="shared" si="5"/>
         <v>2.9933333333333336</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.456666666666667</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.0233333333333334</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.503333333333333</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.0566666666666666</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>24</v>
+      <c r="L22" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="M22" s="1">
-        <v>1.1653999999999999E-2</v>
+        <v>1.2911000000000001E-2</v>
       </c>
       <c r="O22" s="1" t="str">
         <f>_xlfn.CONCAT("Δ", L22)</f>
         <v>ΔI₀</v>
       </c>
-      <c r="P22" s="8" t="str">
-        <f>_xlfn.CONCAT("±", TEXT(Q22, $O$2))</f>
-        <v>±0,0000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="M23" s="14">
-        <f>0.308982/4</f>
-        <v>7.7245499999999995E-2</v>
+      <c r="P22" s="18" t="str">
+        <f>_xlfn.CONCAT("±", TEXT(N34, $O$2))</f>
+        <v>±0,0092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="13.9" customHeight="1">
+      <c r="L23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="9">
+        <f>1.713447/4</f>
+        <v>0.42836174999999999</v>
       </c>
       <c r="O23" s="1" t="str">
         <f>_xlfn.CONCAT("Δ", L23)</f>
         <v>Δmут</v>
       </c>
-      <c r="P23" s="8" t="str">
-        <f>_xlfn.CONCAT("±", TEXT(Q23, $O$2))</f>
-        <v>±0,0000</v>
-      </c>
-    </row>
+      <c r="P23" s="7" t="str">
+        <f>_xlfn.CONCAT("±", TEXT(N36, $O$2))</f>
+        <v>±0,0054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="B26" s="23"/>
+      <c r="L26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" s="1">
+        <f>N15/AVERAGE(N7:N10)</f>
+        <v>0.65239671682655354</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" s="21"/>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="14.45">
+      <c r="B28" s="22"/>
+      <c r="D28" s="19" cm="1">
+        <f t="array" ref="D28">(SUM(($B$7:$B$9-$B$10)^2)/6)^(1/2)</f>
+        <v>8.8191710368820606E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="F28" s="1">
+        <f>$E$28*$D$28</f>
+        <v>3.7922435458592856E-2</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f>_xlfn.CONCAT("±", TEXT(F28, $O$2))</f>
+        <v>±0,0379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" s="21"/>
+      <c r="K29" s="9">
+        <f>AVERAGE(M7:M10)</f>
+        <v>0.13699239820342046</v>
+      </c>
+      <c r="L29" s="9">
+        <f>AVERAGE(N7:N10)</f>
+        <v>5.9561912262356724</v>
+      </c>
+      <c r="M29" s="9">
+        <f>AVERAGE(O7:O10)</f>
+        <v>0.13250358253492911</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="D30" s="19" cm="1">
+        <f t="array" ref="D30">SQRT(SUM(($N$7:$N$10-AVERAGE($N$7:$N$10))^2)/12)</f>
+        <v>1.409901208266559</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="F30" s="1">
+        <f>D30*E30</f>
+        <v>4.4834858422876573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="D32" s="9">
+        <f>AVERAGE(N7:N10)</f>
+        <v>5.9561912262356724</v>
+      </c>
+      <c r="H32" s="9">
+        <f>AVERAGE(M7:M10)</f>
+        <v>0.13699239820342046</v>
+      </c>
+    </row>
+    <row r="33" spans="4:20">
+      <c r="D33" s="1">
+        <f>POWER($D$32-N7,2)</f>
+        <v>11.750498747864905</v>
+      </c>
+      <c r="F33" s="1">
+        <f>SQRT(SUM(D33:D36)/12)*3.18</f>
+        <v>4.4834858422876573</v>
+      </c>
+      <c r="H33" s="1">
+        <f>POWER($H$32-M7,2)</f>
+        <v>6.216013837620534E-3</v>
+      </c>
+      <c r="J33" s="1">
+        <f>SQRT(SUM(H33:H36)/(12))</f>
+        <v>3.242772779013086E-2</v>
+      </c>
+      <c r="L33" s="9">
+        <f>SUM(M19:R19)/6</f>
+        <v>4.936016666666667E-2</v>
+      </c>
+      <c r="M33" s="16">
+        <f>POWER(M19-$L$33,2)</f>
+        <v>7.4715666736111127E-4</v>
+      </c>
+      <c r="N33" s="17">
+        <f>POWER(N19-$L$33,2)</f>
+        <v>3.5910881669444462E-4</v>
+      </c>
+      <c r="O33" s="17">
+        <f>POWER(O19-$L$33,2)</f>
+        <v>9.2374524694444516E-5</v>
+      </c>
+      <c r="P33" s="17">
+        <f>POWER(P19-$L$33,2)</f>
+        <v>3.5950017361111097E-5</v>
+      </c>
+      <c r="Q33" s="17">
+        <f>POWER(Q19-$L$33,2)</f>
+        <v>3.4833867469444437E-4</v>
+      </c>
+      <c r="R33" s="17">
+        <f>POWER(R19-$L$33,2)</f>
+        <v>9.7567728402777763E-4</v>
+      </c>
+      <c r="T33" s="28"/>
+    </row>
+    <row r="34" spans="4:20">
+      <c r="D34" s="1">
+        <f>POWER($D$32-N8,2)</f>
+        <v>0.99340745835864608</v>
+      </c>
+      <c r="H34" s="1">
+        <f>POWER($H$32-M8,2)</f>
+        <v>5.2551254547172357E-4</v>
+      </c>
+      <c r="J34" s="1">
+        <f>J33*3.18</f>
+        <v>0.10312017437261614</v>
+      </c>
+      <c r="M34" s="17">
+        <f>SUM(M33:R33)/30</f>
+        <v>8.528686616111112E-5</v>
+      </c>
+      <c r="N34" s="17">
+        <f>SQRT(M34)</f>
+        <v>9.2350888550739516E-3</v>
+      </c>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+    </row>
+    <row r="35" spans="4:20">
+      <c r="D35" s="1">
+        <f>POWER($D$32-N9,2)</f>
+        <v>1.9584877709255064</v>
+      </c>
+      <c r="H35" s="1">
+        <f>POWER($H$32-M9,2)</f>
+        <v>1.0360400308195932E-3</v>
+      </c>
+      <c r="L35" s="9">
+        <f>AVERAGE(M21:R21)</f>
+        <v>2.1283166666666669E-2</v>
+      </c>
+      <c r="M35" s="16">
+        <f>POWER(M21-$L$35,2)</f>
+        <v>2.3575043402777784E-4</v>
+      </c>
+      <c r="N35" s="16">
+        <f>POWER(N21-$L$35,2)</f>
+        <v>1.1835626736111112E-4</v>
+      </c>
+      <c r="O35" s="16">
+        <f t="shared" ref="N35:R35" si="6">POWER(O21-$L$35,2)</f>
+        <v>2.6565434027777793E-5</v>
+      </c>
+      <c r="P35" s="16">
+        <f t="shared" si="6"/>
+        <v>3.3154340277777676E-6</v>
+      </c>
+      <c r="Q35" s="16">
+        <f t="shared" si="6"/>
+        <v>1.0091876736111099E-4</v>
+      </c>
+      <c r="R35" s="16">
+        <f t="shared" si="6"/>
+        <v>3.8106293402777742E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="4:20">
+      <c r="D36" s="1">
+        <f>POWER($D$32-N10,2)</f>
+        <v>9.1514630277089815</v>
+      </c>
+      <c r="H36" s="1">
+        <f>POWER($H$32-M10,2)</f>
+        <v>4.8411239416580537E-3</v>
+      </c>
+      <c r="M36" s="17">
+        <f>SUM(M35:R35)/30</f>
+        <v>2.8865642361111099E-5</v>
+      </c>
+      <c r="N36" s="1">
+        <f>SQRT(M36)</f>
+        <v>5.3726755309725432E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:20" ht="14.25">
+      <c r="D38" s="24">
+        <f>0.001/0.7+2*$E$41/B10</f>
+        <v>1.7123123622654057E-2</v>
+      </c>
+      <c r="M38" s="1" cm="1">
+        <f t="array" ref="M38">SUM((M19:R19-$L$33)^2)/30</f>
+        <v>8.528686616111112E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:20">
+      <c r="J39" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="4:20">
+      <c r="E40" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="1">
+        <f>F45/M7</f>
+        <v>6.3809310016919793E-2</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="4:20" ht="14.25">
+      <c r="E41" s="27" cm="1">
+        <f t="array" ref="E41">SQRT(4.3^2*SUM((B7:B9-B10)^2)/(3*(3-1))+(2/3*0.01)^2)</f>
+        <v>3.8503968049482709E-2</v>
+      </c>
+      <c r="F41" s="26">
+        <f>M7*(0.001/0.7+2*$E$41/B10)</f>
+        <v>9.9572157467214622E-4</v>
+      </c>
+      <c r="G41" s="26">
+        <f>N7*(0.001/0.7+2*$E$41/B10+$F$3/$F$2)</f>
+        <v>7.0188957025497253E-2</v>
+      </c>
+      <c r="H41" s="26">
+        <f>O7*(0.001/0.7+2*$E$41/B10+J7/K7+$H$3/$H$2)</f>
+        <v>1.8124779346935143E-3</v>
+      </c>
+      <c r="J41" s="1">
+        <f>G45/N7</f>
+        <v>8.8871192535393287E-2</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="4:20">
+      <c r="E42" s="26"/>
+      <c r="F42" s="26">
+        <f>M8*(0.001/0.7+2*$E$41/B14)</f>
+        <v>2.6703288695377422E-3</v>
+      </c>
+      <c r="G42" s="26">
+        <f>N8*(0.001/0.7+2*$E$41/B14+$F$3/$F$2)</f>
+        <v>0.16886181847111004</v>
+      </c>
+      <c r="H42" s="26">
+        <f>O8*(0.001/0.7+2*$E$41/B14+J8/K8+$H$3/$H$2)</f>
+        <v>3.9697195501432929E-3</v>
+      </c>
+      <c r="J42" s="1">
+        <f>H45/O7</f>
+        <v>8.8932806865814187E-2</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="4:20">
+      <c r="E43" s="26"/>
+      <c r="F43" s="26">
+        <f>M9*(0.001/0.7+2*$E$41/B18)</f>
+        <v>4.770608256835787E-3</v>
+      </c>
+      <c r="G43" s="26">
+        <f>N9*(0.001/0.7+2*$E$41/B18+$F$3/$F$2)</f>
+        <v>0.28566935710793928</v>
+      </c>
+      <c r="H43" s="26">
+        <f>O9*(0.001/0.7+2*$E$41/B18+J9/K9+$H$3/$H$2)</f>
+        <v>6.4809579109091396E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="4:20">
+      <c r="E44" s="26"/>
+      <c r="F44" s="26">
+        <f>M10*(0.001/0.7+2*$E$41/B22)</f>
+        <v>6.4055647270983293E-3</v>
+      </c>
+      <c r="G44" s="26">
+        <f>N10*(0.001/0.7+2*$E$41/B22+$F$3/$F$2)</f>
+        <v>0.37404887528593361</v>
+      </c>
+      <c r="H44" s="26">
+        <f>O10*(0.001/0.7+2*$E$41/B22+J10/K10+$H$3/$H$2)</f>
+        <v>9.0402028021442319E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:20">
+      <c r="E45" s="26"/>
+      <c r="F45" s="27">
+        <f>AVERAGE(F41:F44)</f>
+        <v>3.7105558570360011E-3</v>
+      </c>
+      <c r="G45" s="27">
+        <f>AVERAGE(G41:G44)</f>
+        <v>0.22469225197262005</v>
+      </c>
+      <c r="H45" s="27">
+        <f>AVERAGE(H41:H44)</f>
+        <v>5.3258395494725445E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="4:20" ht="14.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
     <mergeCell ref="V5:X5"/>
     <mergeCell ref="Y5:AA5"/>
     <mergeCell ref="AB5:AD5"/>
@@ -1905,9 +2659,183 @@
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="S5:U5"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a76ed5b6-a19c-425d-9a06-665f3bfd2b55" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101007AB6D66377CEBE4B97D4049C38F06275" ma:contentTypeVersion="3" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="ca3de1e08f6b7ed3893556a4c3566ea4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a76ed5b6-a19c-425d-9a06-665f3bfd2b55" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="21e21cf46b8010c83ddacd35a4e27271" ns3:_="">
+    <xsd:import namespace="a76ed5b6-a19c-425d-9a06-665f3bfd2b55"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a76ed5b6-a19c-425d-9a06-665f3bfd2b55" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="10" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Тип контента"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Название"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDED260E-3E66-420F-9745-B00A246787A1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98E9997C-7E54-4C5D-B056-D7C1735AAAF1}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14DF9F7B-BB75-465C-ACB2-9A16065C6BAF}"/>
 </file>